--- a/pred_ohlcv/54_21/2020-01-13 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 OGO ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>2120679.264191271</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3275227.396461445</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2903045.860361445</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1657446.029961445</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2418645.200161445</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2991096.361161445</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3252640.506561445</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3134595.598361445</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3272622.917161445</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1429119.276755305</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1468633.423455305</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1459694.867955305</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1459694.867955305</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1459694.867955305</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1459694.867955305</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1452104.874755305</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1548286.043255305</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1533339.258855305</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1736181.064255305</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2008902.992639455</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2008952.060439455</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-2037531.455439455</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-2037531.455439455</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-2132215.964939455</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-2132165.919839455</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-2116327.220439455</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-2093178.288239455</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-2087178.288239455</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-2088238.319839455</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-2088288.170339455</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-2089222.283839455</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-2069160.283839455</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-2069160.283839455</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-2065034.161639455</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-2065083.181339455</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-2057101.181839455</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-2062179.663139455</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1886746.955339455</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1878365.162739455</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1888505.828239455</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1871503.384639455</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1871503.384639455</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1916087.488539455</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1894886.638039455</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1894936.438839455</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 OGO ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>2120679.264191271</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3275227.396461445</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2903045.860361445</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1657446.029961445</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2418645.200161445</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2991096.361161445</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3252640.506561445</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3272622.917161445</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2961672.381861445</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2369101.713861444</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2369101.713861444</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1429119.276755305</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1468633.423455305</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1459694.867955305</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1459694.867955305</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1459694.867955305</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1459694.867955305</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1452104.874755305</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1549465.258855305</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1803650.068755305</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1736181.064255305</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1736181.064255305</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1689143.064255305</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1787582.880155305</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1812353.930339455</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1956169.633739455</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2008805.905239455</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2008902.992639455</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2008952.060439455</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2008952.060439455</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-2037531.455439455</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-2037531.455439455</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-2026826.511239455</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-2132215.964939455</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-2132165.919839455</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-2116327.220439455</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-2116376.288239455</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-2093178.288239455</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-2087178.288239455</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-2088238.319839455</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-2088288.170339455</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-2083385.628039455</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-2089222.283839455</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-2069160.283839455</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-2069160.283839455</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-2065034.161639455</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-2065083.181339455</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-2057101.181839455</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-2062179.663139455</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1886746.955339455</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1878365.162739455</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1888505.828239455</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1871503.384639455</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1871503.384639455</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1916087.488539455</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1894886.638039455</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1894936.438839455</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
